--- a/Makslip-2081-1st/Markslip-(7 NM).xlsx
+++ b/Makslip-2081-1st/Markslip-(7 NM).xlsx
@@ -328,7 +328,7 @@
     <t>नम्बर चढाइसकेपछि फाइल सेभ गरी यो लिङ्कमा थिच्नुस । यसपछि यही फाइल अपलोड गर्नुहोस् ।</t>
   </si>
   <si>
-    <t>https://bit.ly/3SrTnrm</t>
+    <t>https://bit.ly/4dncgUa</t>
   </si>
 </sst>
 </file>
@@ -462,15 +462,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>412750</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -481,7 +481,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1358900" y="7251700"/>
+          <a:off x="1593850" y="7232650"/>
           <a:ext cx="863600" cy="768350"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -506,6 +506,63 @@
       </xdr:style>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Upload</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="7480300"/>
+          <a:ext cx="882650" cy="292100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -811,7 +868,7 @@
   <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
